--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Bartronics India Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Bartronics India Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -606,7 +606,7 @@
         <v>7.35</v>
       </c>
       <c r="H2">
-        <v>-0.5922222222222223</v>
+        <v>-0.59</v>
       </c>
       <c r="I2">
         <v>0.89</v>
@@ -630,7 +630,7 @@
         <v>2.13</v>
       </c>
       <c r="P2">
-        <v>1.837222222222222</v>
+        <v>1.84</v>
       </c>
       <c r="Q2">
         <v>0.78</v>
@@ -651,10 +651,10 @@
         <v>3.09</v>
       </c>
       <c r="W2">
-        <v>20.96583333333333</v>
+        <v>20.97</v>
       </c>
       <c r="X2">
-        <v>16.756</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -677,7 +677,7 @@
         <v>18.17</v>
       </c>
       <c r="G3">
-        <v>14.91375</v>
+        <v>14.91</v>
       </c>
       <c r="H3">
         <v>-1.33</v>
@@ -725,10 +725,10 @@
         <v>2.74</v>
       </c>
       <c r="W3">
-        <v>20.96583333333333</v>
+        <v>20.97</v>
       </c>
       <c r="X3">
-        <v>16.756</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -751,7 +751,7 @@
         <v>29.47</v>
       </c>
       <c r="G4">
-        <v>14.91375</v>
+        <v>14.91</v>
       </c>
       <c r="H4">
         <v>-3.39</v>
@@ -799,10 +799,10 @@
         <v>3.66</v>
       </c>
       <c r="W4">
-        <v>20.96583333333333</v>
+        <v>20.97</v>
       </c>
       <c r="X4">
-        <v>16.756</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -825,7 +825,7 @@
         <v>64.44</v>
       </c>
       <c r="G5">
-        <v>14.91375</v>
+        <v>14.91</v>
       </c>
       <c r="H5">
         <v>-1.83</v>
@@ -873,10 +873,10 @@
         <v>7.55</v>
       </c>
       <c r="W5">
-        <v>20.96583333333333</v>
+        <v>20.97</v>
       </c>
       <c r="X5">
-        <v>16.756</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -947,7 +947,7 @@
         <v>12.34</v>
       </c>
       <c r="W6">
-        <v>20.96583333333333</v>
+        <v>20.97</v>
       </c>
       <c r="X6">
         <v>66.75</v>
@@ -976,7 +976,7 @@
         <v>0.21</v>
       </c>
       <c r="H7">
-        <v>-0.5922222222222223</v>
+        <v>-0.59</v>
       </c>
       <c r="I7">
         <v>8.18</v>
@@ -1021,7 +1021,7 @@
         <v>16.6</v>
       </c>
       <c r="W7">
-        <v>20.96583333333333</v>
+        <v>20.97</v>
       </c>
       <c r="X7">
         <v>98.56</v>
@@ -1240,7 +1240,7 @@
         <v>-35.78</v>
       </c>
       <c r="V10">
-        <v>-2.409473684210526</v>
+        <v>-2.41</v>
       </c>
       <c r="W10">
         <v>29.28</v>
@@ -1370,7 +1370,7 @@
         <v>-126.69</v>
       </c>
       <c r="P12">
-        <v>1.837222222222222</v>
+        <v>1.84</v>
       </c>
       <c r="Q12">
         <v>-15.29</v>
@@ -1983,7 +1983,7 @@
         <v>3.62</v>
       </c>
       <c r="W20">
-        <v>20.96583333333333</v>
+        <v>20.97</v>
       </c>
       <c r="X20">
         <v>1</v>
@@ -2009,7 +2009,7 @@
         <v>50.31</v>
       </c>
       <c r="G21">
-        <v>14.91375</v>
+        <v>14.91</v>
       </c>
       <c r="H21">
         <v>0.11</v>
@@ -2018,7 +2018,7 @@
         <v>5.58</v>
       </c>
       <c r="J21">
-        <v>37.29368421052632</v>
+        <v>37.29</v>
       </c>
       <c r="K21">
         <v>0.45</v>
@@ -2057,10 +2057,10 @@
         <v>0.05</v>
       </c>
       <c r="W21">
-        <v>20.96583333333333</v>
+        <v>20.97</v>
       </c>
       <c r="X21">
-        <v>16.756</v>
+        <v>16.76</v>
       </c>
     </row>
   </sheetData>
